--- a/data/trans_orig/Q02D_LAB-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>6.209820859917709</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.762976648077462</v>
+        <v>6.762976648077463</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>6.007522752419656</v>
@@ -681,7 +681,7 @@
         <v>8.216644710057473</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.626109506482245</v>
+        <v>6.626109506482244</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>5.93093053232983</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.813975997189462</v>
+        <v>4.800345096199091</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.963445412387601</v>
+        <v>4.918857793187756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.178908443212541</v>
+        <v>5.262509009093407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.54135671345881</v>
+        <v>4.379055674775588</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.373455276924552</v>
+        <v>5.379583433837722</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.945421173892319</v>
+        <v>5.953485103639113</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.267086472627484</v>
+        <v>7.254141812788368</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.407382400894503</v>
+        <v>5.302820278720552</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.392471445390997</v>
+        <v>5.369059779410534</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.729318607547789</v>
+        <v>5.755345045391662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.730680795474129</v>
+        <v>6.718934091999755</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.425435758594437</v>
+        <v>5.494019543469653</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.939013511584715</v>
+        <v>6.921521409063661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.087732984662708</v>
+        <v>6.111776121809741</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.322549699596649</v>
+        <v>7.274024435725595</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.27848575708641</v>
+        <v>10.33510249599971</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.754133541153368</v>
+        <v>6.65714269842014</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.892932005658194</v>
+        <v>6.894492705972668</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.283389216225691</v>
+        <v>9.193132545343927</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.716186647536183</v>
+        <v>8.60635861974608</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.505162377366656</v>
+        <v>6.486322060478835</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.459301961420548</v>
+        <v>6.497602527565157</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8.170474215350035</v>
+        <v>8.266013556594533</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.236822216258194</v>
+        <v>8.140340568839992</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>6.501094453143295</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.326592982843121</v>
+        <v>5.326592982843122</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>5.91899078957875</v>
@@ -817,7 +817,7 @@
         <v>8.486578233048878</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.623524619686407</v>
+        <v>7.623524619686406</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>4.78198061711377</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.807070431060455</v>
+        <v>2.725366006779207</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.344371573728224</v>
+        <v>4.352495105936116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.943473032590449</v>
+        <v>6.025120510270157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.598141795668344</v>
+        <v>4.498323467785798</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.448007154849183</v>
+        <v>5.47118798361557</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.397030465224053</v>
+        <v>6.395725991520184</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.067193286449674</v>
+        <v>8.052340350364325</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.994027261372707</v>
+        <v>6.963616849618202</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.453664743386951</v>
+        <v>4.45583108594444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.634755220336817</v>
+        <v>5.649389877550788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.357612203243137</v>
+        <v>7.339018950691607</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.196141257661973</v>
+        <v>6.201952431700542</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.526262707780244</v>
+        <v>3.524898504137587</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.926875348974585</v>
+        <v>4.912658891992245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.02267864800962</v>
+        <v>7.068928713651591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.450312360555196</v>
+        <v>6.487063179736998</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.429071145045287</v>
+        <v>6.447577673899182</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.91414477834776</v>
+        <v>6.929052643582883</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>8.95682232105708</v>
+        <v>8.954966957751649</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>8.411015004681325</v>
+        <v>8.370835123856981</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.120264656089102</v>
+        <v>5.130176187042155</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.038902746357181</v>
+        <v>6.011310468295155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8.042703709689151</v>
+        <v>8.061002219966365</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.316925825556761</v>
+        <v>7.380352721991324</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>5.571903809833597</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.817992944054588</v>
+        <v>6.817992944054589</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>5.192679803796616</v>
@@ -953,7 +953,7 @@
         <v>8.616342656106285</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>8.379686279711667</v>
+        <v>8.379686279711668</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>4.375895175429751</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.747979355726887</v>
+        <v>2.757674423623174</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.791803046597518</v>
+        <v>3.814843539539752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.905534001360491</v>
+        <v>4.974675246414444</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.287221822532535</v>
+        <v>5.358016808974244</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.55330741880381</v>
+        <v>4.538295383081814</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.236035140653314</v>
+        <v>6.258021821260504</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.850088521764518</v>
+        <v>7.82299897218182</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.313134930971364</v>
+        <v>7.289948138242609</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.880834371782676</v>
+        <v>3.94839907183882</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.305273263305805</v>
+        <v>5.258873926692151</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.834987174338186</v>
+        <v>6.866108866279137</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>6.788348083471094</v>
+        <v>6.78903004145271</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.999802566511244</v>
+        <v>4.044731527887701</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.763819055218842</v>
+        <v>4.801494988489021</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.290541593025825</v>
+        <v>6.351591683965419</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.731976563350157</v>
+        <v>9.40583444117744</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.0942399914271</v>
+        <v>6.048682382968032</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.26632753633729</v>
+        <v>7.349319724110998</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.540028707775296</v>
+        <v>9.544562244291672</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.19745606665398</v>
+        <v>10.00682113294724</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.972103054182772</v>
+        <v>5.059520052762323</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.096348860109802</v>
+        <v>6.056667007326228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8.001848887969713</v>
+        <v>8.045355998700272</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9.20650034491508</v>
+        <v>8.956709131168234</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>7.58309368325904</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>6.923712975452706</v>
+        <v>6.923712975452707</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.349190805251983</v>
+        <v>3.31901885244915</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.487751781515275</v>
+        <v>4.509368578857829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.92341179485007</v>
+        <v>5.88197854292808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.068397453941725</v>
+        <v>4.982465456691928</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.48646810708629</v>
+        <v>5.484570094389847</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.384214968855859</v>
+        <v>6.385546029757811</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.082860833283679</v>
+        <v>8.095802875137471</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>7.117882852324975</v>
+        <v>7.104817456806499</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>4.734740591094137</v>
+        <v>4.731775519231847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.704678692961869</v>
+        <v>5.683610782907039</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.300040306240325</v>
+        <v>7.300812602374489</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.418705039805028</v>
+        <v>6.480108517818953</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.02254048620712</v>
+        <v>3.940310998409816</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.956897758703719</v>
+        <v>4.979636051616991</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.692386393563615</v>
+        <v>6.675360059886147</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.601819460402996</v>
+        <v>6.625383901310363</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.222726475989657</v>
+        <v>6.151034401636835</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.828654022334335</v>
+        <v>6.8306539324224</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>8.841568759787879</v>
+        <v>8.865874321667238</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>8.291731674026222</v>
+        <v>8.391105211801429</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>5.226851036686699</v>
+        <v>5.262280681129933</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.02997926587423</v>
+        <v>6.019024445878191</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.863066400023027</v>
+        <v>7.871020648818857</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.413866809603816</v>
+        <v>7.472742641848059</v>
       </c>
     </row>
     <row r="16">
